--- a/livraison.xlsx
+++ b/livraison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Livraison_Avocat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3282DE-5BEE-4E88-BF50-408C3048E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEF5E84-3109-4788-9E51-DB8C6A39EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Project’s name</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Weber</t>
-  </si>
-  <si>
-    <t>Norman</t>
   </si>
   <si>
     <t>10 Place de Bordeaux</t>
@@ -535,7 +532,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +593,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1">
         <v>568909876</v>
@@ -691,29 +688,29 @@
         <v>31</v>
       </c>
       <c r="B5" s="1">
-        <v>277080</v>
+        <v>277083</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="1">
-        <v>523456789</v>
+        <v>512345678</v>
       </c>
       <c r="I5" s="1">
-        <v>523456789</v>
+        <v>512345678</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>30</v>
